--- a/src/test/resources/Excelfiles/LoginCredentials.xlsx
+++ b/src/test/resources/Excelfiles/LoginCredentials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Examcenter_workspace\Automation_Cucumber_EC\src\test\resources\Excelfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210DE0E0-66EB-4091-82E5-FAFC90180051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B36823-F514-485B-AF12-D346BF18FC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{3F1D0F0B-88DD-4005-B5AD-501F7BCB9167}"/>
+    <workbookView minimized="1" xWindow="3400" yWindow="3400" windowWidth="2370" windowHeight="560" xr2:uid="{3F1D0F0B-88DD-4005-B5AD-501F7BCB9167}"/>
   </bookViews>
   <sheets>
     <sheet name="prod" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>prodautomation.procter.5</t>
   </si>
@@ -79,6 +79,33 @@
   </si>
   <si>
     <t>Proctor</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>TenantID</t>
+  </si>
+  <si>
+    <t>prod.</t>
+  </si>
+  <si>
+    <t>controller02.</t>
+  </si>
+  <si>
+    <t>procter.</t>
+  </si>
+  <si>
+    <t>prodautomation.</t>
+  </si>
+  <si>
+    <t>examtaker.</t>
+  </si>
+  <si>
+    <t>dec4th.</t>
   </si>
 </sst>
 </file>
@@ -444,63 +471,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74AEE682-B364-4D9B-A838-15FC05D184CE}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25.54296875" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="26.453125" customWidth="1"/>
+    <col min="5" max="5" width="18.08984375" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C6" s="1"/>
     </row>
   </sheetData>
@@ -513,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2898DD1-37AA-4312-8A4B-FDF6C6CA0BF7}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -522,6 +589,7 @@
     <col min="1" max="1" width="19.1796875" customWidth="1"/>
     <col min="2" max="2" width="13.90625" customWidth="1"/>
     <col min="3" max="3" width="20.08984375" customWidth="1"/>
+    <col min="4" max="6" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
